--- a/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
+++ b/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\ProviderPortalAutomationALM\providerPortalAutomationALM\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BC2E66-A849-433D-ADB4-8EEE639FDB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5860C2-6524-4BBB-888E-98160BCFE3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
     <sheet name="TC0001" sheetId="2" r:id="rId2"/>
     <sheet name="TC0002" sheetId="4" r:id="rId3"/>
-    <sheet name="TC0006" sheetId="5" r:id="rId4"/>
+    <sheet name="TC0004" sheetId="6" r:id="rId4"/>
+    <sheet name="TC0006" sheetId="5" r:id="rId5"/>
+    <sheet name="TC0025" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="347">
   <si>
     <t>Prodtest1!</t>
   </si>
@@ -1001,9 +1003,6 @@
     <t>Enter Phone Number</t>
   </si>
   <si>
-    <t>//span[@class='slds-radio_faux'])[1]</t>
-  </si>
-  <si>
     <t>Select Network Status</t>
   </si>
   <si>
@@ -1059,6 +1058,30 @@
   </si>
   <si>
     <t>Click Next Button</t>
+  </si>
+  <si>
+    <t>Panel Status Button</t>
+  </si>
+  <si>
+    <t>(//span[@class='slds-checkbox_faux'])[11]</t>
+  </si>
+  <si>
+    <t>New Panel Status</t>
+  </si>
+  <si>
+    <t>//select[@name='NewPanelStatus']</t>
+  </si>
+  <si>
+    <t>Selected New Panel</t>
+  </si>
+  <si>
+    <t>//option[@value='PanelStatusPicklistChoiceSet.Accepting New Patients']</t>
+  </si>
+  <si>
+    <t>(//span[@class='slds-radio_faux'])[1]</t>
+  </si>
+  <si>
+    <t>Registration Page Doesn’t load</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1155,30 +1178,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1205,14 +1211,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1225,9 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1243,6 +1240,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1525,559 +1540,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="164.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2093,7 +2112,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2108,232 +2127,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="C8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="C10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2348,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860347AB-A3CD-4450-AAEF-B1B15B9A647A}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2358,979 +2377,979 @@
     <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="D9" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="C10" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="20" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="18" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="D16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="D17" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="18" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="D18" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="D19" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="D20" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="D21" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="18" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="D22" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="D23" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="18" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="21" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="23" t="s">
+      <c r="D25" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="23" t="s">
+      <c r="D26" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="17">
         <v>10001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="23" t="s">
+      <c r="D27" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="18" t="s">
+      <c r="D28" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="21" t="s">
+      <c r="D29" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="D30" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="39" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="18" t="s">
+      <c r="D31" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="18" t="s">
+      <c r="D33" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="18" t="s">
+      <c r="D34" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="18" t="s">
+      <c r="D35" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="18" t="s">
+      <c r="D36" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="18" t="s">
+      <c r="D37" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="18" t="s">
+      <c r="D38" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="17">
         <v>123456789</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="18" t="s">
+      <c r="D39" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" s="18" t="s">
+      <c r="D40" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="D41" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="18" t="s">
+      <c r="D42" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" s="18" t="s">
+      <c r="D43" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="18" t="s">
+      <c r="D44" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3343,11 +3362,417 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA23B4-8C43-41A4-919A-B6DE96B40489}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FBDF79-FA28-4768-A94C-39FD2C815FE8}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3356,743 +3781,501 @@
     <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="27" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="27" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="27" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="27" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="32" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="32" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>1234567890</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="D21" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="D22" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="4"/>
+      <c r="G22" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4102,4 +4285,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EAADB8-E840-4A9C-B2F4-7FF0A9148CCB}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
+++ b/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\ProviderPortalAutomationALM\providerPortalAutomationALM\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5860C2-6524-4BBB-888E-98160BCFE3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A537AA-5835-42E9-AB34-A9A99CE9E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="TC0004" sheetId="6" r:id="rId4"/>
     <sheet name="TC0006" sheetId="5" r:id="rId5"/>
     <sheet name="TC0025" sheetId="7" r:id="rId6"/>
+    <sheet name="TC0026" sheetId="8" r:id="rId7"/>
+    <sheet name="TC0027" sheetId="9" r:id="rId8"/>
+    <sheet name="TC0028" sheetId="10" r:id="rId9"/>
+    <sheet name="TC0029" sheetId="11" r:id="rId10"/>
+    <sheet name="TC0030" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="423">
   <si>
     <t>Prodtest1!</t>
   </si>
@@ -1081,14 +1086,242 @@
     <t>(//span[@class='slds-radio_faux'])[1]</t>
   </si>
   <si>
-    <t>Registration Page Doesn’t load</t>
+    <t>//a[contains(text(),'Patients')]</t>
+  </si>
+  <si>
+    <t>Hover</t>
+  </si>
+  <si>
+    <t>Select Patients</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='Enrollment Referrals']</t>
+  </si>
+  <si>
+    <t>Select Enrollment Referral</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Submit Referral')]</t>
+  </si>
+  <si>
+    <t>Submit Referral</t>
+  </si>
+  <si>
+    <t>Verify Referral Page Open</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t>(//b[normalize-space()='Referrer Information'])[1]</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Referrer Information</t>
+  </si>
+  <si>
+    <t>Select Resources</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Resources')]</t>
+  </si>
+  <si>
+    <t>//strong[normalize-space()='Resources']</t>
+  </si>
+  <si>
+    <t>Verify Resources Page Open</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Admin Login</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>3.0 Profile Management</t>
+  </si>
+  <si>
+    <t>4.0 Member Roster</t>
+  </si>
+  <si>
+    <t>5.0 Comunication with Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0 Patient Referrals for Enrollment </t>
+  </si>
+  <si>
+    <t>7.0 Claims</t>
+  </si>
+  <si>
+    <t>9.0 Documents &amp; Resources</t>
+  </si>
+  <si>
+    <t>10.0 Authorizations</t>
+  </si>
+  <si>
+    <t>12.0 Language Support</t>
+  </si>
+  <si>
+    <t>14.0 Knowledge Articles</t>
+  </si>
+  <si>
+    <t>13.0 Branding</t>
+  </si>
+  <si>
+    <t>11.0 Reporting</t>
+  </si>
+  <si>
+    <t>15.0 Salesforce Configuration</t>
+  </si>
+  <si>
+    <t>19.5 Security and Password Policies</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>//a[@href='/claims']</t>
+  </si>
+  <si>
+    <t>Click Claims &amp; Payments</t>
+  </si>
+  <si>
+    <t>Verify Claims Displayed</t>
+  </si>
+  <si>
+    <t>//strong[normalize-space()='Claims']</t>
+  </si>
+  <si>
+    <t>//button[@name='filterDate']</t>
+  </si>
+  <si>
+    <t>Select a Date Range</t>
+  </si>
+  <si>
+    <t>Select 'All Time' Value</t>
+  </si>
+  <si>
+    <t>//button[@data-value='All Time']</t>
+  </si>
+  <si>
+    <t>//input[@name='TMG_V_NUMBER']</t>
+  </si>
+  <si>
+    <t>Enter VNS Health Member ID</t>
+  </si>
+  <si>
+    <t>V70102027</t>
+  </si>
+  <si>
+    <t>Enter Claim Number</t>
+  </si>
+  <si>
+    <t>Enter Medicare Number</t>
+  </si>
+  <si>
+    <t>Enter Medicaid Number</t>
+  </si>
+  <si>
+    <t>Select Claim Type</t>
+  </si>
+  <si>
+    <t>Select Status</t>
+  </si>
+  <si>
+    <t>//input[@name='MEME_FIRST_NAME']</t>
+  </si>
+  <si>
+    <t>Rahsaan</t>
+  </si>
+  <si>
+    <t>//input[@name='MEME_LAST_NAME']</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>//input[@name='TMG_CLCL_ID']</t>
+  </si>
+  <si>
+    <t>//input[@name='HICN_MEDICARE_NO']</t>
+  </si>
+  <si>
+    <t>5A57HF9KT60</t>
+  </si>
+  <si>
+    <t>//input[@name='MEDICAID_NO']</t>
+  </si>
+  <si>
+    <t>YZ72336H</t>
+  </si>
+  <si>
+    <t>(//span[@class='slds-truncate'][normalize-space()='Select a filter value'])[1]</t>
+  </si>
+  <si>
+    <t>//span[@title='MEDICAL']</t>
+  </si>
+  <si>
+    <t>Select Medical Claim Type</t>
+  </si>
+  <si>
+    <t>//span[@title= 'PAID']</t>
+  </si>
+  <si>
+    <t>Select Paid Status</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='Select a filter value']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Search']</t>
+  </si>
+  <si>
+    <t>Click Search Button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Export']</t>
+  </si>
+  <si>
+    <t>Verify Export Button is Displayed</t>
+  </si>
+  <si>
+    <t>Unable to register</t>
+  </si>
+  <si>
+    <t>Verify Claims Table Displayed</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>//table[@class='slds-table slds-table_cell-buffer slds-table_bordered slds-max-medium-table--stacked']</t>
+  </si>
+  <si>
+    <t>Verify Claims Displayed in Card Format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,6 +1348,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1155,7 +1395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1178,12 +1418,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1191,10 +1468,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1259,6 +1532,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1540,570 +1842,1335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="164.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D26" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D27" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D28" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D29" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="36"/>
+      <c r="C32" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="36"/>
+      <c r="C35" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="37"/>
+      <c r="C52" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="37"/>
+      <c r="C54" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="36"/>
+      <c r="C61" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="37"/>
+      <c r="C62" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="36"/>
+      <c r="C64" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="36"/>
+      <c r="C65" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="36"/>
+      <c r="C66" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="36"/>
+      <c r="C67" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9436DD17-F5B8-4A21-A46E-A5A6DAB2420A}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="39" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341F24F-DFB3-4954-A8E6-653022E5CD29}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2191,7 +3258,7 @@
       <c r="F3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2211,7 +3278,7 @@
       <c r="E4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2234,7 +3301,7 @@
       <c r="E5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>162</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2257,7 +3324,7 @@
       <c r="E6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>164</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2280,7 +3347,7 @@
       <c r="E7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>165</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2303,7 +3370,7 @@
       <c r="E8" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>172</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2326,7 +3393,7 @@
       <c r="E9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>173</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2349,7 +3416,7 @@
       <c r="E10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>191</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2367,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860347AB-A3CD-4450-AAEF-B1B15B9A647A}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -2382,799 +3449,799 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="C8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="C10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="D11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="D12" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="D14" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="14" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="D16" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="19" t="s">
+      <c r="D17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="19" t="s">
+      <c r="D19" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="D20" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="14" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="D24" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="17" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="D25" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="18" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="D26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="13">
         <v>10001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="D27" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="15" t="s">
+      <c r="D28" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="15" t="s">
+      <c r="D30" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="39" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="D31" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="G31" s="17"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="D33" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>267</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="D34" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>268</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="15" t="s">
+      <c r="D35" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>270</v>
       </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="15" t="s">
+      <c r="D36" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>272</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3182,171 +4249,171 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="D37" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>275</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="15" t="s">
+      <c r="D38" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="13">
         <v>123456789</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="15" t="s">
+      <c r="D39" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>278</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" s="15" t="s">
+      <c r="D40" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>279</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="15" t="s">
+      <c r="D41" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>280</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="15" t="s">
+      <c r="D42" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>288</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" s="15" t="s">
+      <c r="D43" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>288</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="15" t="s">
+      <c r="D44" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>291</v>
       </c>
       <c r="G44" s="2"/>
@@ -3380,384 +4447,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="C8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="D9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="C11" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="C12" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="C13" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="31" t="s">
+      <c r="C14" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="D15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="D16" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="D17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3771,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FBDF79-FA28-4768-A94C-39FD2C815FE8}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3786,496 +4853,496 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="D4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="D6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="23" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="23" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="E9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="23" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="E13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="14">
         <v>1234567890</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="D14" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="27" t="s">
+      <c r="D15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="23" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="27" t="s">
+      <c r="C17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="23" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="23" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="23" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="27" t="s">
+      <c r="D21" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="27" t="s">
+      <c r="D22" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4289,10 +5356,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EAADB8-E840-4A9C-B2F4-7FF0A9148CCB}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4306,219 +5373,1267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>167</v>
       </c>
+      <c r="B8" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>168</v>
       </c>
+      <c r="B9" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>169</v>
       </c>
+      <c r="B10" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>170</v>
       </c>
+      <c r="B11" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C276EA-87C5-4346-8C4C-19EE9BE9A634}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF76D4B-F8DC-46D6-B361-C86E005D321C}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA79986C-D4D3-42B5-B3E0-E751E1754AB5}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>171</v>
       </c>
+      <c r="B12" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>175</v>
       </c>
+      <c r="B13" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>193</v>
       </c>
+      <c r="B14" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="B15" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="G15" s="33">
+        <v>230800012400</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
         <v>197</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
+++ b/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\ProviderPortalAutomationALM\providerPortalAutomationALM\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A537AA-5835-42E9-AB34-A9A99CE9E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A0998-BC1D-4330-B613-CB639B1B3BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="TC0028" sheetId="10" r:id="rId9"/>
     <sheet name="TC0029" sheetId="11" r:id="rId10"/>
     <sheet name="TC0030" sheetId="12" r:id="rId11"/>
+    <sheet name="TC0032" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="425">
   <si>
     <t>Prodtest1!</t>
   </si>
@@ -1315,6 +1316,12 @@
   </si>
   <si>
     <t>Verify Claims Displayed in Card Format</t>
+  </si>
+  <si>
+    <t>ONLY MOBILE VIEW</t>
+  </si>
+  <si>
+    <t>Export Data</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1364,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1391,6 +1398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,7 +1473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1561,6 +1574,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1844,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2264,29 +2280,33 @@
         <v>106</v>
       </c>
       <c r="B31" s="36"/>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="22" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="22" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="36"/>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="22"/>
@@ -2949,7 +2969,236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341F24F-DFB3-4954-A8E6-653022E5CD29}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B0021D-0AA9-442F-B102-3C191E0C6026}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3151,20 +3400,22 @@
       <c r="A9" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>422</v>
+      <c r="B9" s="25" t="s">
+        <v>424</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>420</v>
+        <v>166</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>354</v>
+        <v>157</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3179,7 +3430,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:G10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6094,7 +6345,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B23" sqref="B23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
+++ b/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\ProviderPortalAutomationALM\providerPortalAutomationALM\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A275A2AE-3574-4A3D-91D2-B60E7C47923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF29ADF-B9C2-4808-B851-D97343574909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <sheet name="TC0049" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$F$1:$F$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$E$1:$E$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="568">
   <si>
     <t>Prodtest1!</t>
   </si>
@@ -1383,9 +1383,6 @@
   </si>
   <si>
     <t>Click Resources</t>
-  </si>
-  <si>
-    <t>Only Resources Page Available, displaying resources type and name</t>
   </si>
   <si>
     <t>Provider Toolkit link opens different domain; Availity link exists in different domain</t>
@@ -1578,9 +1575,6 @@
     <t>C:\Users\802072\git\ProviderPortalAutomationALM\providerPortalAutomationALM\src\test\resources\testDocuments\WordDocumentUploadTest.docx</t>
   </si>
   <si>
-    <t>Partially Completed</t>
-  </si>
-  <si>
     <t>Click Authorizations</t>
   </si>
   <si>
@@ -1777,6 +1771,48 @@
   </si>
   <si>
     <t>No login cred to test for terminated provider</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Only Resources Page Available, displaying resources type and name and Document as a ResourceType</t>
+  </si>
+  <si>
+    <t>Partially Passed; Destination does not exist</t>
+  </si>
+  <si>
+    <t>//*[@name='ReasonPicklist']</t>
+  </si>
+  <si>
+    <t>//*[@value='Reason_Adult_Day_Med']</t>
+  </si>
+  <si>
+    <t>//*[@name='StartDate']</t>
+  </si>
+  <si>
+    <t>//*[@name='EndDate']</t>
+  </si>
+  <si>
+    <t>//*[@name='RequestingProviderName']</t>
+  </si>
+  <si>
+    <t>//*[@name='RequestingProviderAddress']</t>
+  </si>
+  <si>
+    <t>//*[@name='RequestingProviderCity']</t>
+  </si>
+  <si>
+    <t>//*[@name='RequestingProviderState']</t>
+  </si>
+  <si>
+    <t>//flowruntime-screen-field[1]//option[33]</t>
+  </si>
+  <si>
+    <t>//*[@name='RequestingProviderZip']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Passed</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2043,33 +2079,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2095,6 +2113,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2379,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2406,10 +2439,10 @@
       <c r="D1" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>437</v>
       </c>
     </row>
@@ -2417,7 +2450,7 @@
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="54" t="s">
         <v>367</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2426,7 +2459,9 @@
       <c r="D2" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="29" t="s">
+        <v>364</v>
+      </c>
       <c r="F2" s="25" t="s">
         <v>438</v>
       </c>
@@ -2435,14 +2470,16 @@
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="29" t="s">
+        <v>364</v>
+      </c>
       <c r="F3" s="25" t="s">
         <v>438</v>
       </c>
@@ -2451,7 +2488,7 @@
       <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2467,14 +2504,16 @@
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="29" t="s">
+        <v>364</v>
+      </c>
       <c r="F5" s="25" t="s">
         <v>438</v>
       </c>
@@ -2483,12 +2522,14 @@
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>364</v>
+      </c>
       <c r="F6" s="25" t="s">
         <v>364</v>
       </c>
@@ -2497,15 +2538,15 @@
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="40" t="s">
         <v>380</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>438</v>
@@ -2515,7 +2556,7 @@
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="32" t="s">
         <v>16</v>
       </c>
@@ -2531,7 +2572,7 @@
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="54" t="s">
         <v>368</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2549,7 +2590,7 @@
       <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -2565,7 +2606,7 @@
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2581,7 +2622,7 @@
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2597,7 +2638,7 @@
       <c r="A13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="54" t="s">
         <v>369</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2615,7 +2656,7 @@
       <c r="A14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
@@ -2631,7 +2672,7 @@
       <c r="A15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2647,7 +2688,7 @@
       <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2663,7 +2704,7 @@
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2679,7 +2720,7 @@
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
@@ -2695,7 +2736,7 @@
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
@@ -2711,7 +2752,7 @@
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
@@ -2727,7 +2768,7 @@
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
@@ -2743,13 +2784,13 @@
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>364</v>
@@ -2759,13 +2800,13 @@
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="29" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>364</v>
@@ -2775,13 +2816,13 @@
       <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="29" t="s">
-        <v>364</v>
+        <v>452</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>364</v>
@@ -2791,13 +2832,13 @@
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="29" t="s">
-        <v>364</v>
+        <v>439</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>364</v>
@@ -2807,7 +2848,7 @@
       <c r="A26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="54" t="s">
         <v>370</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2816,7 +2857,9 @@
       <c r="D26" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="29" t="s">
+        <v>439</v>
+      </c>
       <c r="F26" s="25" t="s">
         <v>438</v>
       </c>
@@ -2825,14 +2868,16 @@
       <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="E27" s="29"/>
+        <v>567</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>552</v>
+      </c>
       <c r="F27" s="25" t="s">
         <v>438</v>
       </c>
@@ -2841,16 +2886,18 @@
       <c r="A28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="54" t="s">
         <v>371</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="E28" s="29"/>
+        <v>567</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>553</v>
+      </c>
       <c r="F28" s="25" t="s">
         <v>438</v>
       </c>
@@ -2859,14 +2906,16 @@
       <c r="A29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="29" t="s">
+        <v>421</v>
+      </c>
       <c r="F29" s="25" t="s">
         <v>438</v>
       </c>
@@ -2875,29 +2924,31 @@
       <c r="A30" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>421</v>
+      </c>
       <c r="F30" s="25" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="44" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="29" t="s">
-        <v>421</v>
+        <v>555</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>439</v>
@@ -2907,13 +2958,13 @@
       <c r="A32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="44" t="s">
+      <c r="B32" s="55"/>
+      <c r="C32" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="22"/>
-      <c r="E32" s="29" t="s">
-        <v>421</v>
+      <c r="E32" s="40" t="s">
+        <v>449</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>439</v>
@@ -2923,14 +2974,16 @@
       <c r="A33" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="40" t="s">
+        <v>449</v>
+      </c>
       <c r="F33" s="25" t="s">
         <v>438</v>
       </c>
@@ -2939,13 +2992,13 @@
       <c r="A34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="29" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>364</v>
@@ -2955,31 +3008,33 @@
       <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="31" t="s">
+        <v>363</v>
+      </c>
       <c r="F35" s="25" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="40" t="s">
         <v>380</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>438</v>
@@ -2989,15 +3044,15 @@
       <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="40" t="s">
         <v>380</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>438</v>
@@ -3007,107 +3062,97 @@
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="54" t="s">
         <v>372</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>441</v>
-      </c>
+      <c r="E38" s="29"/>
       <c r="F38" s="22" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="55"/>
+      <c r="C39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="29" t="s">
-        <v>453</v>
-      </c>
+      <c r="D39" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="E39" s="29"/>
       <c r="F39" s="22" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="46"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>447</v>
-      </c>
+      <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="E41" s="51" t="s">
+      <c r="D41" s="43" t="s">
         <v>448</v>
       </c>
+      <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="E42" s="42" t="s">
-        <v>450</v>
-      </c>
+      <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="E43" s="42" t="s">
-        <v>450</v>
-      </c>
+      <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="54" t="s">
         <v>373</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -3119,20 +3164,18 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E45" s="29" t="s">
-        <v>498</v>
-      </c>
+      <c r="E45" s="29"/>
       <c r="F45" s="22" t="s">
         <v>438</v>
       </c>
@@ -3141,7 +3184,7 @@
       <c r="A46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="6" t="s">
         <v>54</v>
       </c>
@@ -3157,35 +3200,31 @@
       <c r="A47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="44" t="s">
+      <c r="B47" s="55"/>
+      <c r="C47" s="42" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="29" t="s">
-        <v>439</v>
-      </c>
+      <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="44" t="s">
+      <c r="B48" s="55"/>
+      <c r="C48" s="42" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="22"/>
-      <c r="E48" s="29" t="s">
-        <v>439</v>
-      </c>
+      <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="46"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="6" t="s">
         <v>57</v>
       </c>
@@ -3201,7 +3240,7 @@
       <c r="A50" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="46"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="35" t="s">
         <v>58</v>
       </c>
@@ -3213,37 +3252,33 @@
       <c r="A51" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="46"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="29" t="s">
-        <v>554</v>
-      </c>
+      <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D52" s="22"/>
-      <c r="E52" s="29" t="s">
-        <v>555</v>
-      </c>
+      <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="54" t="s">
         <v>377</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3257,7 +3292,7 @@
       <c r="A54" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="47"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="8" t="s">
         <v>60</v>
       </c>
@@ -3283,7 +3318,7 @@
       <c r="A56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="54" t="s">
         <v>376</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -3297,7 +3332,7 @@
       <c r="A57" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="47"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="7" t="s">
         <v>63</v>
       </c>
@@ -3309,7 +3344,7 @@
       <c r="A58" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="54" t="s">
         <v>375</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -3323,7 +3358,7 @@
       <c r="A59" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="47"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="8" t="s">
         <v>65</v>
       </c>
@@ -3335,7 +3370,7 @@
       <c r="A60" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="54" t="s">
         <v>378</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -3349,7 +3384,7 @@
       <c r="A61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="46"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="7" t="s">
         <v>67</v>
       </c>
@@ -3361,7 +3396,7 @@
       <c r="A62" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="47"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="8" t="s">
         <v>68</v>
       </c>
@@ -3373,7 +3408,7 @@
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="54" t="s">
         <v>379</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -3387,7 +3422,7 @@
       <c r="A64" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="46"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="7" t="s">
         <v>70</v>
       </c>
@@ -3399,7 +3434,7 @@
       <c r="A65" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="46"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="7" t="s">
         <v>71</v>
       </c>
@@ -3411,7 +3446,7 @@
       <c r="A66" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="46"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="7" t="s">
         <v>72</v>
       </c>
@@ -3423,7 +3458,7 @@
       <c r="A67" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="46"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="8" t="s">
         <v>73</v>
       </c>
@@ -3435,7 +3470,7 @@
       <c r="A68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="47"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="8" t="s">
         <v>74</v>
       </c>
@@ -3444,13 +3479,11 @@
       <c r="F68" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F68" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}"/>
+  <autoFilter ref="E1:E69" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1:E68">
+    <sortCondition ref="E1:E68"/>
+  </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B28:B37"/>
     <mergeCell ref="B38:B43"/>
@@ -3458,6 +3491,11 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4158,10 +4196,10 @@
         <v>427</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>151</v>
@@ -4386,22 +4424,22 @@
       <c r="A9" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>157</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="38" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4668,10 +4706,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76471E1-100B-4AB0-B44D-F7456A6F4425}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="A8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4868,6 +4906,52 @@
         <v>151</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4879,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF243ED0-77B7-4330-8E69-7021AC8EC2AB}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -5059,7 +5143,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -5070,8 +5154,8 @@
       <c r="E8" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>467</v>
+      <c r="F8" s="44" t="s">
+        <v>466</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -5082,7 +5166,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>164</v>
@@ -5093,8 +5177,8 @@
       <c r="E9" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>468</v>
+      <c r="F9" s="44" t="s">
+        <v>467</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>151</v>
@@ -5105,7 +5189,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>172</v>
@@ -5116,8 +5200,8 @@
       <c r="E10" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>469</v>
+      <c r="F10" s="44" t="s">
+        <v>468</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>151</v>
@@ -5128,10 +5212,10 @@
         <v>168</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>155</v>
@@ -5139,10 +5223,10 @@
       <c r="E11" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>470</v>
-      </c>
-      <c r="G11" s="38" t="s">
+      <c r="F11" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5151,7 +5235,7 @@
         <v>169</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>158</v>
@@ -5166,7 +5250,7 @@
         <v>230</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -5185,10 +5269,10 @@
       <c r="E13" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="45" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5197,7 +5281,7 @@
         <v>191</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>164</v>
@@ -5208,8 +5292,8 @@
       <c r="E14" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>474</v>
+      <c r="F14" s="44" t="s">
+        <v>473</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>151</v>
@@ -5219,20 +5303,20 @@
       <c r="A15" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>460</v>
+      <c r="B15" s="43" t="s">
+        <v>459</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>482</v>
+        <v>474</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>481</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>151</v>
@@ -5243,7 +5327,7 @@
         <v>193</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>158</v>
@@ -5255,10 +5339,10 @@
         <v>157</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -5266,7 +5350,7 @@
         <v>194</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>164</v>
@@ -5278,7 +5362,7 @@
         <v>157</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>151</v>
@@ -5289,10 +5373,10 @@
         <v>195</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>153</v>
@@ -5301,7 +5385,7 @@
         <v>157</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>151</v>
@@ -5312,7 +5396,7 @@
         <v>196</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>164</v>
@@ -5323,8 +5407,8 @@
       <c r="E19" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="52" t="s">
-        <v>474</v>
+      <c r="F19" s="44" t="s">
+        <v>473</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>151</v>
@@ -5334,20 +5418,20 @@
       <c r="A20" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>463</v>
+      <c r="B20" s="43" t="s">
+        <v>462</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>151</v>
@@ -5358,7 +5442,7 @@
         <v>215</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>158</v>
@@ -5370,10 +5454,10 @@
         <v>157</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -5381,7 +5465,7 @@
         <v>216</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>164</v>
@@ -5393,7 +5477,7 @@
         <v>157</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>151</v>
@@ -5404,10 +5488,10 @@
         <v>217</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>153</v>
@@ -5416,7 +5500,7 @@
         <v>157</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>151</v>
@@ -5427,7 +5511,7 @@
         <v>218</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>164</v>
@@ -5438,8 +5522,8 @@
       <c r="E24" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="52" t="s">
-        <v>474</v>
+      <c r="F24" s="44" t="s">
+        <v>473</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>151</v>
@@ -5449,20 +5533,20 @@
       <c r="A25" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>464</v>
+      <c r="B25" s="40" t="s">
+        <v>463</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>151</v>
@@ -5473,7 +5557,7 @@
         <v>220</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>158</v>
@@ -5485,10 +5569,10 @@
         <v>157</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -5496,7 +5580,7 @@
         <v>221</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>164</v>
@@ -5508,7 +5592,7 @@
         <v>157</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>151</v>
@@ -5519,10 +5603,10 @@
         <v>222</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>153</v>
@@ -5531,7 +5615,7 @@
         <v>157</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>151</v>
@@ -5542,7 +5626,7 @@
         <v>223</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>164</v>
@@ -5553,8 +5637,8 @@
       <c r="E29" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="52" t="s">
-        <v>474</v>
+      <c r="F29" s="44" t="s">
+        <v>473</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>151</v>
@@ -5564,20 +5648,20 @@
       <c r="A30" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>465</v>
+      <c r="B30" s="40" t="s">
+        <v>464</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>151</v>
@@ -5588,7 +5672,7 @@
         <v>225</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>158</v>
@@ -5600,10 +5684,10 @@
         <v>157</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -5611,7 +5695,7 @@
         <v>226</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>164</v>
@@ -5623,7 +5707,7 @@
         <v>157</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>151</v>
@@ -5634,10 +5718,10 @@
         <v>256</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>153</v>
@@ -5646,7 +5730,7 @@
         <v>157</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>151</v>
@@ -5657,7 +5741,7 @@
         <v>257</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>164</v>
@@ -5668,8 +5752,8 @@
       <c r="E34" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="52" t="s">
-        <v>474</v>
+      <c r="F34" s="44" t="s">
+        <v>473</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>151</v>
@@ -5679,20 +5763,20 @@
       <c r="A35" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>466</v>
+      <c r="B35" s="40" t="s">
+        <v>465</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>151</v>
@@ -5703,7 +5787,7 @@
         <v>259</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>158</v>
@@ -5715,10 +5799,10 @@
         <v>157</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -5726,7 +5810,7 @@
         <v>260</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>164</v>
@@ -5738,7 +5822,7 @@
         <v>157</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>151</v>
@@ -5749,10 +5833,10 @@
         <v>261</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>153</v>
@@ -5761,7 +5845,7 @@
         <v>157</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>151</v>
@@ -5981,7 +6065,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>172</v>
@@ -5993,7 +6077,7 @@
         <v>157</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>151</v>
@@ -6004,7 +6088,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>245</v>
@@ -6016,7 +6100,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>151</v>
@@ -6212,7 +6296,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -6224,7 +6308,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -6235,7 +6319,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>354</v>
@@ -6247,10 +6331,10 @@
         <v>161</v>
       </c>
       <c r="F9" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -6443,7 +6527,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -6455,7 +6539,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -6466,7 +6550,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>354</v>
@@ -6478,32 +6562,32 @@
         <v>161</v>
       </c>
       <c r="F9" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="55" t="s">
+      <c r="D10" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6511,22 +6595,22 @@
       <c r="A11" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="55" t="s">
+      <c r="D11" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6547,10 +6631,10 @@
         <v>157</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -6570,10 +6654,10 @@
         <v>157</v>
       </c>
       <c r="F13" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>501</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -6593,10 +6677,10 @@
         <v>157</v>
       </c>
       <c r="F14" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>502</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26" x14ac:dyDescent="0.35">
@@ -6604,7 +6688,7 @@
         <v>192</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>172</v>
@@ -6625,7 +6709,7 @@
         <v>193</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>158</v>
@@ -6637,7 +6721,7 @@
         <v>157</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G16" s="23"/>
     </row>
@@ -6646,7 +6730,7 @@
         <v>194</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>172</v>
@@ -6658,7 +6742,7 @@
         <v>157</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G17" s="23"/>
     </row>
@@ -6667,7 +6751,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>245</v>
@@ -6679,7 +6763,7 @@
         <v>157</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>151</v>
@@ -6690,7 +6774,7 @@
         <v>196</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>158</v>
@@ -6702,10 +6786,10 @@
         <v>157</v>
       </c>
       <c r="F19" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -6713,7 +6797,7 @@
         <v>197</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>164</v>
@@ -6725,7 +6809,7 @@
         <v>157</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>151</v>
@@ -6736,7 +6820,7 @@
         <v>215</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>164</v>
@@ -7200,8 +7284,8 @@
       <c r="A8" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>492</v>
+      <c r="B8" s="48" t="s">
+        <v>490</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -7213,7 +7297,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -7224,7 +7308,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>354</v>
@@ -7236,32 +7320,32 @@
         <v>161</v>
       </c>
       <c r="F9" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>518</v>
-      </c>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="E10" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="55" t="s">
+      <c r="E10" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7270,7 +7354,7 @@
         <v>168</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>164</v>
@@ -7282,7 +7366,7 @@
         <v>157</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>151</v>
@@ -7300,7 +7384,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7478,8 +7562,8 @@
       <c r="A8" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>492</v>
+      <c r="B8" s="48" t="s">
+        <v>490</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -7491,7 +7575,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -7502,7 +7586,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>164</v>
@@ -7525,10 +7609,10 @@
         <v>167</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>352</v>
@@ -7540,7 +7624,7 @@
         <v>151</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -7554,8 +7638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E324D6-8715-4A5E-A9A8-CB73AB21F8F6}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7565,7 +7649,7 @@
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.90625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48.6328125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -7733,8 +7817,8 @@
       <c r="A8" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>492</v>
+      <c r="B8" s="48" t="s">
+        <v>490</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -7746,7 +7830,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>151</v>
@@ -7756,22 +7840,22 @@
       <c r="A9" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>523</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>157</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="G9" s="60" t="s">
+        <v>526</v>
+      </c>
+      <c r="G9" s="52" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7780,7 +7864,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>158</v>
@@ -7792,10 +7876,10 @@
         <v>157</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -7803,7 +7887,7 @@
         <v>168</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>158</v>
@@ -7815,10 +7899,10 @@
         <v>157</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -7838,10 +7922,10 @@
         <v>157</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -7849,7 +7933,7 @@
         <v>173</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>164</v>
@@ -7872,7 +7956,7 @@
         <v>191</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>164</v>
@@ -7894,16 +7978,16 @@
       <c r="A15" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>525</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>157</v>
       </c>
       <c r="F15" s="36" t="s">
@@ -7918,7 +8002,7 @@
         <v>193</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>172</v>
@@ -7929,7 +8013,9 @@
       <c r="E16" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29" t="s">
+        <v>557</v>
+      </c>
       <c r="G16" s="13" t="s">
         <v>151</v>
       </c>
@@ -7939,10 +8025,10 @@
         <v>194</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>245</v>
@@ -7950,7 +8036,9 @@
       <c r="E17" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>558</v>
+      </c>
       <c r="G17" s="13" t="s">
         <v>151</v>
       </c>
@@ -7960,7 +8048,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>158</v>
@@ -7971,8 +8059,10 @@
       <c r="E18" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="59">
+      <c r="F18" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="G18" s="51">
         <v>45078</v>
       </c>
     </row>
@@ -7981,7 +8071,7 @@
         <v>196</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>158</v>
@@ -7992,8 +8082,10 @@
       <c r="E19" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="59">
+      <c r="F19" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="G19" s="51">
         <v>45092</v>
       </c>
     </row>
@@ -8002,7 +8094,7 @@
         <v>197</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>158</v>
@@ -8013,9 +8105,11 @@
       <c r="E20" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29" t="s">
+        <v>561</v>
+      </c>
       <c r="G20" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -8023,7 +8117,7 @@
         <v>215</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>158</v>
@@ -8034,9 +8128,11 @@
       <c r="E21" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29" t="s">
+        <v>562</v>
+      </c>
       <c r="G21" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -8044,7 +8140,7 @@
         <v>216</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>158</v>
@@ -8055,9 +8151,11 @@
       <c r="E22" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29" t="s">
+        <v>563</v>
+      </c>
       <c r="G22" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -8065,7 +8163,7 @@
         <v>217</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>172</v>
@@ -8076,7 +8174,9 @@
       <c r="E23" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>564</v>
+      </c>
       <c r="G23" s="13" t="s">
         <v>151</v>
       </c>
@@ -8086,7 +8186,7 @@
         <v>218</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>245</v>
@@ -8097,7 +8197,9 @@
       <c r="E24" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>565</v>
+      </c>
       <c r="G24" s="13" t="s">
         <v>151</v>
       </c>
@@ -8107,7 +8209,7 @@
         <v>219</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>158</v>
@@ -8118,7 +8220,9 @@
       <c r="E25" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>566</v>
+      </c>
       <c r="G25" s="13">
         <v>12345</v>
       </c>
@@ -8128,7 +8232,7 @@
         <v>220</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>158</v>
@@ -8149,7 +8253,7 @@
         <v>221</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>158</v>
@@ -8162,7 +8266,7 @@
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -8170,7 +8274,7 @@
         <v>222</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>158</v>
@@ -8191,7 +8295,7 @@
         <v>223</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>158</v>
@@ -8204,7 +8308,7 @@
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -8212,7 +8316,7 @@
         <v>224</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>158</v>
@@ -8225,7 +8329,7 @@
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -8233,7 +8337,7 @@
         <v>225</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>158</v>
@@ -8246,7 +8350,7 @@
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -8254,7 +8358,7 @@
         <v>226</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>172</v>
@@ -8275,7 +8379,7 @@
         <v>256</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>245</v>
@@ -8286,7 +8390,9 @@
       <c r="E33" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="29" t="s">
+        <v>565</v>
+      </c>
       <c r="G33" s="13" t="s">
         <v>151</v>
       </c>
@@ -8296,7 +8402,7 @@
         <v>257</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>158</v>
@@ -8317,7 +8423,7 @@
         <v>258</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>158</v>
@@ -8338,7 +8444,7 @@
         <v>259</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>158</v>
@@ -8359,7 +8465,7 @@
         <v>260</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>164</v>
@@ -9009,7 +9115,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>222</v>
       </c>
@@ -10583,7 +10689,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11045,8 +11151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA79986C-D4D3-42B5-B3E0-E751E1754AB5}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11263,7 +11369,7 @@
         <v>384</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">

--- a/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
+++ b/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\ProviderPortalAutomationALM\providerPortalAutomationALM\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF29ADF-B9C2-4808-B851-D97343574909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F656E-DF6B-4331-A7C6-DB42A8089930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <sheet name="TC0049" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$E$1:$E$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$E$1:$E$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="566">
   <si>
     <t>Prodtest1!</t>
   </si>
@@ -1310,9 +1310,6 @@
     <t>Verify Export Button is Displayed</t>
   </si>
   <si>
-    <t>Unable to register</t>
-  </si>
-  <si>
     <t>Verify Claims Table Displayed</t>
   </si>
   <si>
@@ -1398,12 +1395,6 @@
   </si>
   <si>
     <t>//span[@title='Document']</t>
-  </si>
-  <si>
-    <t>Document page does not exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enrollment Referrals, Dispute Claim (initial release)</t>
   </si>
   <si>
     <t>TC0025 and TC0034</t>
@@ -1593,15 +1584,6 @@
     <t>Claims</t>
   </si>
   <si>
-    <t>Search Parameter:Auth ID/Auth Number
-Auth Type
-Date Range (From Date and To Date)
-First Name
-Last Name
-Decision Status
-Member ID</t>
-  </si>
-  <si>
     <t>//input[@name='GC_PATIENT_ID']</t>
   </si>
   <si>
@@ -1767,9 +1749,6 @@
     <t>Select NY</t>
   </si>
   <si>
-    <t>No LINK exists on Login Screen</t>
-  </si>
-  <si>
     <t>No login cred to test for terminated provider</t>
   </si>
   <si>
@@ -1813,6 +1792,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Passed</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>fails to register</t>
+  </si>
+  <si>
+    <t>LINK NA</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2114,21 +2102,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2412,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2439,18 +2424,18 @@
       <c r="D1" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="60" t="s">
-        <v>447</v>
+      <c r="E1" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>367</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2459,86 +2444,84 @@
       <c r="D2" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>364</v>
-      </c>
+      <c r="E2" s="29"/>
       <c r="F2" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>364</v>
-      </c>
+      <c r="E3" s="29"/>
       <c r="F3" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E4" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>364</v>
-      </c>
+      <c r="E5" s="29"/>
       <c r="F5" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E6" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2546,309 +2529,345 @@
         <v>380</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>364</v>
+        <v>564</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E8" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="55" t="s">
         <v>368</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E9" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E10" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E11" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E12" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>369</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E13" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E14" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E15" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E16" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E17" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E18" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E19" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E20" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E21" s="29" t="s">
         <v>364</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E22" s="29" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E23" s="29" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E24" s="29" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="E25" s="29" t="s">
-        <v>439</v>
+        <v>364</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="55" t="s">
         <v>370</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2857,212 +2876,197 @@
       <c r="D26" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>439</v>
-      </c>
       <c r="F26" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="58"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>552</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="E27" s="29"/>
       <c r="F27" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="55" t="s">
         <v>371</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>553</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="E28" s="29"/>
       <c r="F28" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>421</v>
-      </c>
+      <c r="E29" s="29"/>
       <c r="F29" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>421</v>
-      </c>
       <c r="F30" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="29" t="s">
-        <v>555</v>
+        <v>420</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>439</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="22"/>
-      <c r="E32" s="40" t="s">
-        <v>449</v>
+      <c r="E32" s="29" t="s">
+        <v>420</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>439</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E33" s="40" t="s">
-        <v>449</v>
-      </c>
       <c r="F33" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="55"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="29" t="s">
-        <v>441</v>
+      <c r="D34" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>364</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="55"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>363</v>
-      </c>
+      <c r="E35" s="46"/>
       <c r="F35" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="55"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>496</v>
+      <c r="E36" s="49" t="s">
+        <v>440</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="58"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>416</v>
+      <c r="E37" s="49" t="s">
+        <v>431</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>438</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="55" t="s">
         <v>372</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -3071,104 +3075,118 @@
       <c r="D38" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="29" t="s">
+        <v>550</v>
+      </c>
       <c r="F38" s="22" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="59" t="s">
-        <v>556</v>
-      </c>
-      <c r="E39" s="29"/>
+      <c r="D39" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>449</v>
+      </c>
       <c r="F39" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="55"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E41" s="29"/>
-      <c r="F41" s="22"/>
+      <c r="F41" s="22" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="22"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="22"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="55" t="s">
         <v>373</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>365</v>
+      </c>
       <c r="E44" s="29"/>
       <c r="F44" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="6" t="s">
         <v>53</v>
       </c>
@@ -3177,14 +3195,14 @@
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="55"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="6" t="s">
         <v>54</v>
       </c>
@@ -3193,38 +3211,46 @@
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="42" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="22"/>
+      <c r="E47" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="55"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="42" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="22"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="55"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="6" t="s">
         <v>57</v>
       </c>
@@ -3233,14 +3259,14 @@
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="55"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="35" t="s">
         <v>58</v>
       </c>
@@ -3252,33 +3278,39 @@
       <c r="A51" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="55"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="22"/>
+        <v>447</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="58"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D52" s="22"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="22"/>
+      <c r="E52" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="55" t="s">
         <v>377</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3292,7 +3324,7 @@
       <c r="A54" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="58"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="8" t="s">
         <v>60</v>
       </c>
@@ -3318,7 +3350,7 @@
       <c r="A56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="55" t="s">
         <v>376</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -3332,7 +3364,7 @@
       <c r="A57" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="58"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="7" t="s">
         <v>63</v>
       </c>
@@ -3344,7 +3376,7 @@
       <c r="A58" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="55" t="s">
         <v>375</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -3358,7 +3390,7 @@
       <c r="A59" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="58"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="8" t="s">
         <v>65</v>
       </c>
@@ -3370,7 +3402,7 @@
       <c r="A60" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="55" t="s">
         <v>378</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -3384,7 +3416,7 @@
       <c r="A61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="55"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="7" t="s">
         <v>67</v>
       </c>
@@ -3396,7 +3428,7 @@
       <c r="A62" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="58"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="8" t="s">
         <v>68</v>
       </c>
@@ -3408,7 +3440,7 @@
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="55" t="s">
         <v>379</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -3422,7 +3454,7 @@
       <c r="A64" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="55"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="7" t="s">
         <v>70</v>
       </c>
@@ -3434,7 +3466,7 @@
       <c r="A65" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="55"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="7" t="s">
         <v>71</v>
       </c>
@@ -3446,7 +3478,7 @@
       <c r="A66" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="55"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="7" t="s">
         <v>72</v>
       </c>
@@ -3458,7 +3490,7 @@
       <c r="A67" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="55"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="8" t="s">
         <v>73</v>
       </c>
@@ -3470,7 +3502,7 @@
       <c r="A68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="58"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="8" t="s">
         <v>74</v>
       </c>
@@ -3479,11 +3511,16 @@
       <c r="F68" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E69" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}"/>
+  <autoFilter ref="E1:E80" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1:E68">
     <sortCondition ref="E1:E68"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B28:B37"/>
     <mergeCell ref="B38:B43"/>
@@ -3491,11 +3528,6 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3710,10 +3742,10 @@
         <v>166</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>352</v>
@@ -3722,7 +3754,7 @@
         <v>161</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>151</v>
@@ -3941,10 +3973,10 @@
         <v>166</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>352</v>
@@ -4170,7 +4202,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>164</v>
@@ -4193,22 +4225,22 @@
         <v>167</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>427</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -4402,7 +4434,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -4414,7 +4446,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -4425,7 +4457,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>357</v>
@@ -4437,7 +4469,7 @@
         <v>157</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>151</v>
@@ -4448,10 +4480,10 @@
         <v>167</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>430</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>431</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>352</v>
@@ -4460,7 +4492,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>151</v>
@@ -4657,7 +4689,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -4669,7 +4701,7 @@
         <v>157</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -4680,7 +4712,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>357</v>
@@ -4692,7 +4724,7 @@
         <v>161</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>151</v>
@@ -4888,7 +4920,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -4911,10 +4943,10 @@
         <v>166</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>155</v>
@@ -4934,19 +4966,19 @@
         <v>167</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>444</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>445</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>151</v>
@@ -5143,7 +5175,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -5155,7 +5187,7 @@
         <v>157</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -5166,7 +5198,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>164</v>
@@ -5178,7 +5210,7 @@
         <v>157</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>151</v>
@@ -5189,7 +5221,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>172</v>
@@ -5201,7 +5233,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>151</v>
@@ -5212,10 +5244,10 @@
         <v>168</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>155</v>
@@ -5224,7 +5256,7 @@
         <v>157</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>151</v>
@@ -5235,7 +5267,7 @@
         <v>169</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>158</v>
@@ -5250,7 +5282,7 @@
         <v>230</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -5281,7 +5313,7 @@
         <v>191</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>164</v>
@@ -5293,7 +5325,7 @@
         <v>157</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>151</v>
@@ -5304,19 +5336,19 @@
         <v>192</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>151</v>
@@ -5327,7 +5359,7 @@
         <v>193</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>158</v>
@@ -5339,10 +5371,10 @@
         <v>157</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -5350,7 +5382,7 @@
         <v>194</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>164</v>
@@ -5362,7 +5394,7 @@
         <v>157</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>151</v>
@@ -5373,10 +5405,10 @@
         <v>195</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>153</v>
@@ -5385,7 +5417,7 @@
         <v>157</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>151</v>
@@ -5396,7 +5428,7 @@
         <v>196</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>164</v>
@@ -5408,7 +5440,7 @@
         <v>157</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>151</v>
@@ -5419,19 +5451,19 @@
         <v>197</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>151</v>
@@ -5442,7 +5474,7 @@
         <v>215</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>158</v>
@@ -5454,10 +5486,10 @@
         <v>157</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -5465,7 +5497,7 @@
         <v>216</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>164</v>
@@ -5477,7 +5509,7 @@
         <v>157</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>151</v>
@@ -5488,10 +5520,10 @@
         <v>217</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>153</v>
@@ -5500,7 +5532,7 @@
         <v>157</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>151</v>
@@ -5511,7 +5543,7 @@
         <v>218</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>164</v>
@@ -5523,7 +5555,7 @@
         <v>157</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>151</v>
@@ -5534,19 +5566,19 @@
         <v>219</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>151</v>
@@ -5557,7 +5589,7 @@
         <v>220</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>158</v>
@@ -5569,10 +5601,10 @@
         <v>157</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -5580,7 +5612,7 @@
         <v>221</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>164</v>
@@ -5592,7 +5624,7 @@
         <v>157</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>151</v>
@@ -5603,10 +5635,10 @@
         <v>222</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>153</v>
@@ -5615,7 +5647,7 @@
         <v>157</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>151</v>
@@ -5626,7 +5658,7 @@
         <v>223</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>164</v>
@@ -5638,7 +5670,7 @@
         <v>157</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>151</v>
@@ -5649,19 +5681,19 @@
         <v>224</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>151</v>
@@ -5672,7 +5704,7 @@
         <v>225</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>158</v>
@@ -5684,10 +5716,10 @@
         <v>157</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -5695,7 +5727,7 @@
         <v>226</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>164</v>
@@ -5707,7 +5739,7 @@
         <v>157</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>151</v>
@@ -5718,10 +5750,10 @@
         <v>256</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>153</v>
@@ -5730,7 +5762,7 @@
         <v>157</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>151</v>
@@ -5741,7 +5773,7 @@
         <v>257</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>164</v>
@@ -5753,7 +5785,7 @@
         <v>157</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>151</v>
@@ -5764,19 +5796,19 @@
         <v>258</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>245</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>151</v>
@@ -5787,7 +5819,7 @@
         <v>259</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>158</v>
@@ -5799,10 +5831,10 @@
         <v>157</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -5810,7 +5842,7 @@
         <v>260</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>164</v>
@@ -5822,7 +5854,7 @@
         <v>157</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>151</v>
@@ -5833,10 +5865,10 @@
         <v>261</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>153</v>
@@ -5845,7 +5877,7 @@
         <v>157</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>151</v>
@@ -6042,7 +6074,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -6065,7 +6097,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>172</v>
@@ -6077,7 +6109,7 @@
         <v>157</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>151</v>
@@ -6088,7 +6120,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>245</v>
@@ -6100,7 +6132,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>151</v>
@@ -6296,7 +6328,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -6308,7 +6340,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -6319,7 +6351,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>354</v>
@@ -6331,10 +6363,10 @@
         <v>161</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -6527,7 +6559,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -6539,7 +6571,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -6550,7 +6582,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>354</v>
@@ -6562,10 +6594,10 @@
         <v>161</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -6631,10 +6663,10 @@
         <v>157</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -6654,10 +6686,10 @@
         <v>157</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -6677,10 +6709,10 @@
         <v>157</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26" x14ac:dyDescent="0.35">
@@ -6688,7 +6720,7 @@
         <v>192</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>172</v>
@@ -6709,7 +6741,7 @@
         <v>193</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>158</v>
@@ -6721,7 +6753,7 @@
         <v>157</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G16" s="23"/>
     </row>
@@ -6730,7 +6762,7 @@
         <v>194</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>172</v>
@@ -6742,7 +6774,7 @@
         <v>157</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G17" s="23"/>
     </row>
@@ -6751,7 +6783,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>245</v>
@@ -6763,7 +6795,7 @@
         <v>157</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>151</v>
@@ -6774,7 +6806,7 @@
         <v>196</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>158</v>
@@ -6786,10 +6818,10 @@
         <v>157</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -6797,7 +6829,7 @@
         <v>197</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>164</v>
@@ -6809,7 +6841,7 @@
         <v>157</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>151</v>
@@ -6820,7 +6852,7 @@
         <v>215</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>164</v>
@@ -7285,7 +7317,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -7297,7 +7329,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -7308,7 +7340,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>354</v>
@@ -7320,10 +7352,10 @@
         <v>161</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -7331,10 +7363,10 @@
         <v>167</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>352</v>
@@ -7343,7 +7375,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>151</v>
@@ -7354,7 +7386,7 @@
         <v>168</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>164</v>
@@ -7366,7 +7398,7 @@
         <v>157</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>151</v>
@@ -7563,7 +7595,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -7575,7 +7607,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>151</v>
@@ -7586,7 +7618,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>164</v>
@@ -7609,10 +7641,10 @@
         <v>167</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>352</v>
@@ -7624,7 +7656,7 @@
         <v>151</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -7818,7 +7850,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>357</v>
@@ -7830,7 +7862,7 @@
         <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>151</v>
@@ -7841,7 +7873,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>164</v>
@@ -7853,7 +7885,7 @@
         <v>157</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>151</v>
@@ -7864,7 +7896,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>158</v>
@@ -7876,10 +7908,10 @@
         <v>157</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -7887,7 +7919,7 @@
         <v>168</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>158</v>
@@ -7899,10 +7931,10 @@
         <v>157</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -7922,10 +7954,10 @@
         <v>157</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -7933,7 +7965,7 @@
         <v>173</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>164</v>
@@ -7956,7 +7988,7 @@
         <v>191</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>164</v>
@@ -7979,7 +8011,7 @@
         <v>192</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>164</v>
@@ -8002,7 +8034,7 @@
         <v>193</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>172</v>
@@ -8014,7 +8046,7 @@
         <v>157</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>151</v>
@@ -8025,10 +8057,10 @@
         <v>194</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>245</v>
@@ -8037,7 +8069,7 @@
         <v>157</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>151</v>
@@ -8048,7 +8080,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>158</v>
@@ -8060,7 +8092,7 @@
         <v>157</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G18" s="51">
         <v>45078</v>
@@ -8071,7 +8103,7 @@
         <v>196</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>158</v>
@@ -8083,7 +8115,7 @@
         <v>157</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G19" s="51">
         <v>45092</v>
@@ -8094,7 +8126,7 @@
         <v>197</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>158</v>
@@ -8106,10 +8138,10 @@
         <v>157</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -8117,7 +8149,7 @@
         <v>215</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>158</v>
@@ -8129,10 +8161,10 @@
         <v>157</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -8140,7 +8172,7 @@
         <v>216</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>158</v>
@@ -8152,10 +8184,10 @@
         <v>157</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -8163,7 +8195,7 @@
         <v>217</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>172</v>
@@ -8175,7 +8207,7 @@
         <v>157</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>151</v>
@@ -8186,7 +8218,7 @@
         <v>218</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>245</v>
@@ -8198,7 +8230,7 @@
         <v>157</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>151</v>
@@ -8209,7 +8241,7 @@
         <v>219</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>158</v>
@@ -8221,7 +8253,7 @@
         <v>157</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G25" s="13">
         <v>12345</v>
@@ -8232,7 +8264,7 @@
         <v>220</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>158</v>
@@ -8253,7 +8285,7 @@
         <v>221</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>158</v>
@@ -8266,7 +8298,7 @@
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -8274,7 +8306,7 @@
         <v>222</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>158</v>
@@ -8295,7 +8327,7 @@
         <v>223</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>158</v>
@@ -8308,7 +8340,7 @@
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -8316,7 +8348,7 @@
         <v>224</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>158</v>
@@ -8329,7 +8361,7 @@
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -8337,7 +8369,7 @@
         <v>225</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>158</v>
@@ -8350,7 +8382,7 @@
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -8358,7 +8390,7 @@
         <v>226</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>172</v>
@@ -8379,7 +8411,7 @@
         <v>256</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>245</v>
@@ -8391,7 +8423,7 @@
         <v>157</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>151</v>
@@ -8402,7 +8434,7 @@
         <v>257</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>158</v>
@@ -8423,7 +8455,7 @@
         <v>258</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>158</v>
@@ -8444,7 +8476,7 @@
         <v>259</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>158</v>
@@ -8465,7 +8497,7 @@
         <v>260</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>164</v>
@@ -9115,7 +9147,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>222</v>
       </c>
@@ -11369,7 +11401,7 @@
         <v>384</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">

--- a/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
+++ b/providerPortalAutomationALM/src/test/resources/testCases/testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\ProviderPortalAutomationALM\providerPortalAutomationALM\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9787DD5-5790-4DF7-86BD-F01D6570EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7572E3AE-8ACA-4C4C-A7E5-7649519EF021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -2285,11 +2285,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2571,11 +2571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H67" sqref="H66:H67"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2642,7 +2641,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -2675,14 +2674,14 @@
         <v>597</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="41" t="s">
         <v>13</v>
       </c>
@@ -2700,7 +2699,7 @@
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
@@ -2714,11 +2713,11 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2788,11 +2787,11 @@
         <v>551</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="41" t="s">
         <v>19</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>86</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>89</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>91</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>93</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
@@ -3024,11 +3023,11 @@
         <v>551</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="41" t="s">
         <v>32</v>
       </c>
@@ -3063,7 +3062,7 @@
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>105</v>
       </c>
@@ -3225,11 +3224,11 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="4" t="s">
         <v>44</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>110</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>111</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -3310,10 +3309,10 @@
         <v>436</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="145" hidden="1" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>113</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="5" t="s">
         <v>50</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>119</v>
       </c>
@@ -3479,11 +3478,11 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="4" t="s">
         <v>438</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -3517,7 +3516,7 @@
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="47"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
@@ -3565,11 +3564,11 @@
         <v>551</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="47"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="41" t="s">
         <v>61</v>
       </c>
@@ -3605,7 +3604,7 @@
       <c r="A59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="47"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="5" t="s">
         <v>63</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>131</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>132</v>
       </c>
@@ -3653,11 +3652,11 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="47"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="4" t="s">
         <v>66</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>134</v>
       </c>
@@ -3683,7 +3682,7 @@
       <c r="E63" s="19"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -3695,7 +3694,7 @@
       <c r="E64" s="19"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="E65" s="19"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
@@ -3719,7 +3718,7 @@
       <c r="E66" s="19"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>138</v>
       </c>
@@ -3731,11 +3730,11 @@
       <c r="E67" s="19"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="47"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="7" t="s">
         <v>72</v>
       </c>
@@ -3744,22 +3743,11 @@
       <c r="F68" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F68" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Completed"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F68" xr:uid="{ED0FBEB7-8D62-466C-A0E1-5A1FE4B4B4F2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1:E68">
     <sortCondition ref="E1:E68"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B28:B37"/>
     <mergeCell ref="B38:B43"/>
@@ -3767,6 +3755,11 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
